--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-10_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-10_end.xlsx
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"]  You even defeated the reinforcements? I shouldn’t have expected less from you, Talulah! 
+    <t xml:space="preserve">[name="Infected Fighter"]  You even defeated the reinforcements? I shouldn't have expected less from you, Talulah! 
 </t>
   </si>
   <si>
@@ -1100,11 +1100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"]  I did. Some of the kids were crying about how one of the older girls hasn’t come back yet...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Fighter"]  It’s sad, but this happens fairly often these days. *Sigh*. 
+    <t xml:space="preserve">[name="Infected Fighter"]  I did. Some of the kids were crying about how one of the older girls hasn't come back yet...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  It's sad, but this happens fairly often these days. *Sigh*. 
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Talulah! We found the rest of the patrol unit. Looks like they’ve just been running away the whole time.  
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah! We found the rest of the patrol unit. Looks like they've just been running away the whole time.  
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  East. Makes me wonder if they’ll come across the folks we exiled. 
+    <t xml:space="preserve">[name="Shieldguard"]  East. Makes me wonder if they'll come across the folks we exiled. 
 </t>
   </si>
   <si>
@@ -1248,11 +1248,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  I didn’t... want you to see me like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t talk. Alina, stop talking... Just don’t talk! 
+    <t xml:space="preserve">[name="Alina"]  I didn't... want you to see me like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don't talk. Alina, stop talking... Just don't talk! 
 </t>
   </si>
   <si>
@@ -1260,19 +1260,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  I’m... not bleeding anymore... It’s just...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  In that case... Let’s go! We need to get you to the medics right away for a blood transfusion! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  It’s okay... Don’t worry... It’s just... the things I traded for...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t worry about those... They aren’t important... Let’s head back... I’ll take you there! 
+    <t xml:space="preserve">[name="Alina"]  I'm... not bleeding anymore... It's just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  In that case... Let's go! We need to get you to the medics right away for a blood transfusion! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It's okay... Don't worry... It's just... the things I traded for...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don't worry about those... They aren't important... Let's head back... I'll take you there! 
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I won’t! 
+    <t xml:space="preserve">[name="Talulah"]  I won't! 
 </t>
   </si>
   <si>
@@ -1292,11 +1292,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Was it the Patrol Unit...?! The villagers?! Those bastards... Those bastards... I’ll burn them all... I...  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Wait, don’t tell me... Was it the Infected we exiled...?!
+    <t xml:space="preserve">[name="Talulah"]  Was it the Patrol Unit...?! The villagers?! Those bastards... Those bastards... I'll burn them all... I...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Wait, don't tell me... Was it the Infected we exiled...?!
 </t>
   </si>
   <si>
@@ -1308,11 +1308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Alina... I’m listening... Just tell me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I won’t tell you...!
+    <t xml:space="preserve">[name="Talulah"]  Alina... I'm listening... Just tell me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I won't tell you...!
 </t>
   </si>
   <si>
@@ -1320,19 +1320,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  You mustn't... Don’t you remember what you said to me yourself?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  You mustn’t fight for revenge. You’ve already chosen, Talulah. You’ve already chosen a path to follow... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Giving up halfway... all because of me...? I won’t have it... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Don’t hold this against anybody... You mustn’t.
+    <t xml:space="preserve">[name="Alina"]  You mustn't... Don't you remember what you said to me yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You mustn't fight for revenge. You've already chosen, Talulah. You've already chosen a path to follow... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Giving up halfway... all because of me...? I won't have it... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Don't hold this against anybody... You mustn't.
 </t>
   </si>
   <si>
@@ -1340,11 +1340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  You told me yourself...! You said yourself that you can’t harbor hatred against anyone... or you’d be... swallowed up... by that old man who placed that curse on you...  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  ...Even if those Arts never existed in the first place... Wouldn’t you still... be taken over... by all those things that represented who he was?
+    <t xml:space="preserve">[name="Alina"]  You told me yourself...! You said yourself that you can't harbor hatred against anyone... or you'd be... swallowed up... by that old man who placed that curse on you...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...Even if those Arts never existed in the first place... Wouldn't you still... be taken over... by all those things that represented who he was?
 </t>
   </si>
   <si>
@@ -1360,11 +1360,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  You said it yourself... Those people... aren’t our enemies...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Stop... Alina... Don’t speak...!
+    <t xml:space="preserve">[name="Alina"]  You said it yourself... Those people... aren't our enemies...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Stop... Alina... Don't speak...!
 </t>
   </si>
   <si>
@@ -1372,15 +1372,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  These aren’t the people... you need to crush... It’s Ursus... That drove them into that corner...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  It’s Ursus... and... the world as it is...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s okay... That’s enough, Alina... I get it now!
+    <t xml:space="preserve">[name="Alina"]  These aren't the people... you need to crush... It's Ursus... That drove them into that corner...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It's Ursus... and... the world as it is...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's okay... That's enough, Alina... I get it now!
 </t>
   </si>
   <si>
@@ -1392,15 +1392,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Do you agree with me...? Do you think what I said... is right? Are our lives... meaningful at all? Ugh... I don’t know.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I’m not sure what it was... that we did wrong... but I know very well just what that curse... is all about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Your rage... can burn down the entire plain... but you mustn’t hate...
+    <t xml:space="preserve">[name="Alina"]  Do you agree with me...? Do you think what I said... is right? Are our lives... meaningful at all? Ugh... I don't know.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I'm not sure what it was... that we did wrong... but I know very well just what that curse... is all about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Your rage... can burn down the entire plain... but you mustn't hate...
 </t>
   </si>
   <si>
@@ -1408,15 +1408,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  I’m worried. Talulah, I’m so worried. If I’m not here anymore, you must have Yelena remind you... All this...  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Alina, stop! Don’t go on! I don’t... I don’t want you gone. All of you need to be here with me. You, Yelena, Sasha, Eno... All of you... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t want to lose any of you...!
+    <t xml:space="preserve">[name="Alina"]  I'm worried. Talulah, I'm so worried. If I'm not here anymore, you must have Yelena remind you... All this...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Alina, stop! Don't go on! I don't... I don't want you gone. All of you need to be here with me. You, Yelena, Sasha, Eno... All of you... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don't want to lose any of you...!
 </t>
   </si>
   <si>
@@ -1432,7 +1432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Snow drops down from the Elafia’s horns. As Talulah slogs along, the snow-covered trees behind her begin to burn alight in silence. She has unknowingly begun to set her path ablaze.
+    <t xml:space="preserve">Snow drops down from the Elafia's horns. As Talulah slogs along, the snow-covered trees behind her begin to burn alight in silence. She has unknowingly begun to set her path ablaze.
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Talulah feels each and every beat of Alina’s heart through her back, and they grow weaker and weaker by the moment.
+    <t xml:space="preserve">Talulah feels each and every beat of Alina's heart through her back, and they grow weaker and weaker by the moment.
 </t>
   </si>
   <si>
@@ -1456,19 +1456,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  We’ll be there soon, Alina... We’re almost there!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t close your eyes... Don’t close your eyes!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  It’s far...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  You don’t... need to lie.
+    <t xml:space="preserve">[name="Talulah"]  We'll be there soon, Alina... We're almost there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don't close your eyes... Don't close your eyes!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It's far...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You don't... need to lie.
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m listening, Alina. Tell me. What’s the matter?  
+    <t xml:space="preserve">[name="Talulah"]  I'm listening, Alina. Tell me. What's the matter?  
 </t>
   </si>
   <si>
@@ -1488,11 +1488,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  I’m sorry... I still don’t... have all the things we talked about... written down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s okay. It’s okay, Alina. It doesn’t matter.  
+    <t xml:space="preserve">[name="Alina"]  I'm sorry... I still don't... have all the things we talked about... written down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's okay. It's okay, Alina. It doesn't matter.  
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m listening! Go on, Alina... I’m listening!!  
+    <t xml:space="preserve">[name="Talulah"]  I'm listening! Go on, Alina... I'm listening!!  
 </t>
   </si>
   <si>
@@ -1508,11 +1508,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  It’s getting hot... Talulah...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  ...I don’t want to die... I still haven’t... your sister...
+    <t xml:space="preserve">[name="Alina"]  It's getting hot... Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...I don't want to die... I still haven't... your sister...
 </t>
   </si>
   <si>
@@ -1544,15 +1544,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Yeti Squad Member"]  Talulah! You’re finally back! You didn’t answer our calls, what—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Yeti Squad Member"]  ...What... Who’s that on your back...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Yeti Squad Member"]  She’s not breathing! Medic! Get over here, now! Talulah, just hang on...   
+    <t xml:space="preserve">[name="Yeti Squad Member"]  Talulah! You're finally back! You didn't answer our calls, what—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  ...What... Who's that on your back...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  She's not breathing! Medic! Get over here, now! Talulah, just hang on...   
 </t>
   </si>
   <si>
@@ -1560,11 +1560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Yeti Squad Member"]  (What? She’s walking right by... Where is she going?!) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Talulah, you may be the leader here, but that doesn’t make it any less serious to leave—
+    <t xml:space="preserve">[name="Yeti Squad Member"]  (What? She's walking right by... Where is she going?!) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah, you may be the leader here, but that doesn't make it any less serious to leave—
 </t>
   </si>
   <si>
@@ -1588,11 +1588,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  (Not really. I think... she’s a teacher at the settlement.)  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  (Oh, she’s a teacher. Poor kids. That’s another person they could look up to, gone.)  
+    <t xml:space="preserve">[name="FrostNova"]  (Not really. I think... she's a teacher at the settlement.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (Oh, she's a teacher. Poor kids. That's another person they could look up to, gone.)  
 </t>
   </si>
   <si>
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  (Whatever happened, it’s hers alone to remember.) 
+    <t xml:space="preserve">[name="FrostNova"]  (Whatever happened, it's hers alone to remember.) 
 </t>
   </si>
   <si>
